--- a/10.8/新BOM分阶  带物料号.xlsx
+++ b/10.8/新BOM分阶  带物料号.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="448">
   <si>
     <t>无线测温系统</t>
   </si>
@@ -215,1225 +215,1320 @@
     <t>U1</t>
   </si>
   <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>U7</t>
+  </si>
+  <si>
+    <t>U8</t>
+  </si>
+  <si>
+    <t>U9</t>
+  </si>
+  <si>
+    <t>4MHz_XL4.5</t>
+  </si>
+  <si>
+    <t>XTAL1</t>
+  </si>
+  <si>
+    <t>47K_R0603</t>
+  </si>
+  <si>
+    <t>R1, R2, R3, R4, R5</t>
+  </si>
+  <si>
+    <t>贴片2位拨码开关_贴片2位2.54mm间距拨码开关</t>
+  </si>
+  <si>
+    <t>u7</t>
+  </si>
+  <si>
+    <t>Header 8_HDR1X8</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>QRF0600_QRF0600</t>
+  </si>
+  <si>
+    <t>330uF_钽电容D型封装</t>
+  </si>
+  <si>
+    <t>C1,C2,C3,C4,C5,C6</t>
+  </si>
+  <si>
+    <t>Download 1_HDR1X6</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>0_R0603</t>
+  </si>
+  <si>
+    <t>R2,R3,R4,R5,R6,R7,R16</t>
+  </si>
+  <si>
+    <t>R8,R9,R10,R11 ,R13</t>
+  </si>
+  <si>
+    <t>200_R0603</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>PIC16LF1827-I/SO_SOIC18</t>
+  </si>
+  <si>
+    <t>DS18B20_BCY-W3/E4</t>
+  </si>
+  <si>
+    <t>传感器部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.10.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金属壳体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝缘垫片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铜螺柱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带垫片螺丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉头螺丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馈线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚银纸标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热熔胶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电工胶带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70×25mm</t>
+  </si>
+  <si>
+    <t>50×30mm</t>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>适量</t>
+  </si>
+  <si>
+    <t>适量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.10.2</t>
+  </si>
+  <si>
+    <t>1.2.10.3</t>
+  </si>
+  <si>
+    <t>1.2.10.4</t>
+  </si>
+  <si>
+    <t>1.2.10.5</t>
+  </si>
+  <si>
+    <t>1.2.10.6</t>
+  </si>
+  <si>
+    <t>1.2.10.7</t>
+  </si>
+  <si>
+    <t>1.2.10.8</t>
+  </si>
+  <si>
+    <t>1.2.10.9</t>
+  </si>
+  <si>
+    <t>1.2.10.10</t>
+  </si>
+  <si>
+    <t>1.2.10.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜邦线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>液晶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据集中器主板（厂返）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传感器上下壳体</t>
+  </si>
+  <si>
+    <t>热缩套管</t>
+  </si>
+  <si>
+    <t>双导铜箔胶带</t>
+  </si>
+  <si>
+    <t>导热耐高温双面胶</t>
+  </si>
+  <si>
+    <t>导热硅脂</t>
+  </si>
+  <si>
+    <t>红色导线</t>
+  </si>
+  <si>
+    <t>黑色导线</t>
+  </si>
+  <si>
+    <t>环氧树脂灌封胶</t>
+  </si>
+  <si>
+    <t>信息亚银纸标签</t>
+  </si>
+  <si>
+    <t>ID亚银纸标签</t>
+  </si>
+  <si>
+    <t>1.2.11.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.11.2</t>
+  </si>
+  <si>
+    <t>1.2.11.3</t>
+  </si>
+  <si>
+    <t>1.2.11.4</t>
+  </si>
+  <si>
+    <t>1.2.11.5</t>
+  </si>
+  <si>
+    <t>1.2.11.6</t>
+  </si>
+  <si>
+    <t>1.2.11.7</t>
+  </si>
+  <si>
+    <t>1.2.11.8</t>
+  </si>
+  <si>
+    <t>75.2×29.4×20mm</t>
+  </si>
+  <si>
+    <t>直径350.00×长度87.30</t>
+  </si>
+  <si>
+    <t>98×65×0.1mm</t>
+  </si>
+  <si>
+    <t>35mm</t>
+  </si>
+  <si>
+    <t>906型绝缘灌封胶</t>
+  </si>
+  <si>
+    <t>30×20mm</t>
+  </si>
+  <si>
+    <t>20×10mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电池组合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLH-4902_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.11.9.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.11.9.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.11.9.1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.11.9.1.3</t>
+  </si>
+  <si>
+    <t>1.2.11.9.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.11.9.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.11.9.2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主机部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.10.11.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.11.9.3.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.11.9.3.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传感器节点板（厂返）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.11.9.3.2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.11.9.3.2.2</t>
+  </si>
+  <si>
+    <t>1.2.11.9.3.2.3</t>
+  </si>
+  <si>
+    <t>1.2.11.9.3.2.4</t>
+  </si>
+  <si>
+    <t>1.2.11.9.3.2.5</t>
+  </si>
+  <si>
+    <t>1.2.11.9.3.2.6</t>
+  </si>
+  <si>
+    <t>1.2.11.9.3.2.7</t>
+  </si>
+  <si>
+    <t>1.2.11.9.3.2.8</t>
+  </si>
+  <si>
+    <t>1.2.11.9.3.2.9</t>
+  </si>
+  <si>
+    <t>1.1.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.11.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导轨安装扣</t>
+  </si>
+  <si>
+    <t>导轨安装扣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捆扎带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装配件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HCES-8011整机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>阶码</t>
+  </si>
+  <si>
+    <t>品号</t>
+  </si>
+  <si>
+    <t>品名</t>
+  </si>
+  <si>
+    <t>规格描述</t>
+  </si>
+  <si>
+    <t>位号</t>
+  </si>
+  <si>
+    <t>属性</t>
+  </si>
+  <si>
+    <t>单位</t>
+  </si>
+  <si>
+    <t>用量</t>
+  </si>
+  <si>
+    <t>单价</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>主机导轨安装扣_外形48mm*35mm*8mm,内槽长度43mm（黑）</t>
+  </si>
+  <si>
+    <t>螺丝</t>
+  </si>
+  <si>
+    <t>M3沉头螺丝_M3x6mm</t>
+  </si>
+  <si>
+    <t>面板安装扣</t>
+  </si>
+  <si>
+    <t>主机面板安装扣_外形30mm*25mm*15mm</t>
+  </si>
+  <si>
+    <t>根据客户要求发货，新柜开孔</t>
+  </si>
+  <si>
+    <t>根据客户要求发货，导轨安装</t>
+  </si>
+  <si>
+    <t>扎带_尺寸4.8mm*362 mm，工作温度-20℃~85℃</t>
+  </si>
+  <si>
+    <t>传感器数x2</t>
+  </si>
+  <si>
+    <t>根据传感器数量发货，抗老化，耐高温，阻燃</t>
+  </si>
+  <si>
+    <t>工业端子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8PIN工业端子_弯脚间距5.08mm </t>
+  </si>
+  <si>
+    <t>自封袋</t>
+  </si>
+  <si>
+    <t>塑料自封袋_尺寸100mm*150mm</t>
+  </si>
+  <si>
+    <t>主机内包装</t>
+  </si>
+  <si>
+    <t>主机包装（珍珠棉）_外形152mm*147mm*63mm，内槽122mm*133mm*51mm</t>
+  </si>
+  <si>
+    <t>传感器内包装</t>
+  </si>
+  <si>
+    <t>传感器包装（珍珠棉）_外形152mm*147mm*25mm，内槽72mm*31mm*21mm</t>
+  </si>
+  <si>
+    <t>根据客户需求发货</t>
+  </si>
+  <si>
+    <t>包装上盖</t>
+  </si>
+  <si>
+    <t>包装上盖（珍珠棉）_外形152mm*147mm*8mm</t>
+  </si>
+  <si>
+    <t>说明书</t>
+  </si>
+  <si>
+    <t>主机说明书_</t>
+  </si>
+  <si>
+    <t>合格证</t>
+  </si>
+  <si>
+    <t>合格证_</t>
+  </si>
+  <si>
+    <t>包装箱</t>
+  </si>
+  <si>
+    <t>无线测温产品包装箱_尺寸180mm*160mm*160mm</t>
+  </si>
+  <si>
+    <t>包装箱外标签</t>
+  </si>
+  <si>
+    <t>纸质不干胶_尺寸80mm*40mm</t>
+  </si>
+  <si>
+    <t>2.4G 弯头短套天线</t>
+  </si>
+  <si>
+    <t>主机天线_ 5CM SMA 弯公头小天线 SMA内螺内针</t>
+  </si>
+  <si>
+    <t>主机</t>
+  </si>
+  <si>
+    <t>银色</t>
+  </si>
+  <si>
+    <t>M3绝缘垫片</t>
+  </si>
+  <si>
+    <t>PVC面板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定制尺寸</t>
+  </si>
+  <si>
+    <t>细胶棒</t>
+  </si>
+  <si>
+    <t>SMA外螺内孔线长75mm</t>
+  </si>
+  <si>
+    <t>4PIN杜邦线_长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放电管</t>
+  </si>
+  <si>
+    <t>220uF/16V_钽电容D型封装</t>
+  </si>
+  <si>
+    <t>电解电容</t>
+  </si>
+  <si>
+    <t>贴片电容</t>
+  </si>
+  <si>
+    <t>10uF/16V_钽电容A型封装</t>
+  </si>
+  <si>
+    <t>二极管</t>
+  </si>
+  <si>
+    <t>1N4148_二极管SMT1</t>
+  </si>
+  <si>
+    <t>排母</t>
+  </si>
+  <si>
+    <t>12864液晶排母_HDR1X22</t>
+  </si>
+  <si>
+    <t>单排2.54间距</t>
+  </si>
+  <si>
+    <t>排针</t>
+  </si>
+  <si>
+    <t>12864液晶排针_HDR1X22</t>
+  </si>
+  <si>
+    <t>单排2.54间距针长23mm</t>
+  </si>
+  <si>
+    <t>8pin工业端子_5.08-8PIN</t>
+  </si>
+  <si>
+    <t>5.08间距</t>
+  </si>
+  <si>
+    <t>ZigBee模块接口_HDR1X7</t>
+  </si>
+  <si>
+    <t>下载口_HDR1X6</t>
+  </si>
+  <si>
+    <t>开关接口_HDR1X4</t>
+  </si>
+  <si>
+    <t>单排2.54间距，可以直接焊接排线</t>
+  </si>
+  <si>
+    <t>继电器</t>
+  </si>
+  <si>
+    <t>压敏电容</t>
+  </si>
+  <si>
+    <t>跳线</t>
+  </si>
+  <si>
+    <t>短路线_DLQ</t>
+  </si>
+  <si>
+    <t>电阻</t>
+  </si>
+  <si>
+    <t>热敏电阻</t>
+  </si>
+  <si>
+    <t>不焊接</t>
+  </si>
+  <si>
+    <t>TVS管</t>
+  </si>
+  <si>
+    <t>电源模块</t>
+  </si>
+  <si>
+    <t>EMI滤波器</t>
+  </si>
+  <si>
+    <t>485芯片</t>
+  </si>
+  <si>
+    <t>芯片</t>
+  </si>
+  <si>
+    <t>光耦芯片</t>
+  </si>
+  <si>
+    <t>门电路芯片</t>
+  </si>
+  <si>
+    <t>模块</t>
+  </si>
+  <si>
+    <t>晶振</t>
+  </si>
+  <si>
+    <t>主机转接板</t>
+  </si>
+  <si>
+    <t>单排2.54间距8位排针</t>
+  </si>
+  <si>
+    <t>贴片拨码开关</t>
+  </si>
+  <si>
+    <t>不采购，不焊接</t>
+  </si>
+  <si>
+    <t>模组</t>
+  </si>
+  <si>
+    <t>窄体ZigBee模块</t>
+  </si>
+  <si>
+    <t>传感器</t>
+  </si>
+  <si>
+    <t>HCES-8011-S1-T1-W1_72mm*31mm*21mm（黄、绿、红）</t>
+  </si>
+  <si>
+    <t>传感器转接板</t>
+  </si>
+  <si>
+    <t>拨码开关</t>
+  </si>
+  <si>
+    <t>塑料贴片2位拨码开关_贴片2位2.54mm拨码开关</t>
+  </si>
+  <si>
+    <t>贴片塑料2位2.54mm拨码开关</t>
+  </si>
+  <si>
+    <t>宽体ZigBee模块</t>
+  </si>
+  <si>
+    <t>传感器节点板</t>
+  </si>
+  <si>
+    <t>无模具不焊接</t>
+  </si>
+  <si>
+    <t>C1,C2,C3不焊接</t>
+  </si>
+  <si>
+    <t>主芯片</t>
+  </si>
+  <si>
+    <t>MOS管</t>
+  </si>
+  <si>
+    <t>数据集中器xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.10.11.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.10.11.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.10.11.3.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.10.11.3.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.10.11.3.2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.10.11.3.2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.10.11.3.2.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.10.11.3.2.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.10.11.3.2.5</t>
+  </si>
+  <si>
+    <t>1.2.10.11.3.2.6</t>
+  </si>
+  <si>
+    <t>1.2.10.11.3.2.7</t>
+  </si>
+  <si>
+    <t>1.2.10.11.3.2.8</t>
+  </si>
+  <si>
+    <t>1.2.10.11.3.2.9</t>
+  </si>
+  <si>
+    <t>1.2.10.11.3.2.10</t>
+  </si>
+  <si>
+    <t>1.2.10.11.3.2.11</t>
+  </si>
+  <si>
+    <t>1.2.10.11.3.2.12</t>
+  </si>
+  <si>
+    <t>1.2.10.11.3.2.13</t>
+  </si>
+  <si>
+    <t>1.2.10.11.3.2.14</t>
+  </si>
+  <si>
+    <t>1.2.10.11.3.2.15</t>
+  </si>
+  <si>
+    <t>1.2.10.11.3.2.16</t>
+  </si>
+  <si>
+    <t>1.2.10.11.3.2.17</t>
+  </si>
+  <si>
+    <t>1.2.10.11.3.2.18</t>
+  </si>
+  <si>
+    <t>1.2.10.11.3.2.19</t>
+  </si>
+  <si>
+    <t>1.2.10.11.3.2.20</t>
+  </si>
+  <si>
+    <t>1.2.10.11.3.2.21</t>
+  </si>
+  <si>
+    <t>1.2.10.11.3.2.22</t>
+  </si>
+  <si>
+    <t>1.2.10.11.3.2.23</t>
+  </si>
+  <si>
+    <t>1.2.10.11.3.2.24</t>
+  </si>
+  <si>
+    <t>1.2.10.11.3.2.25</t>
+  </si>
+  <si>
+    <t>1.2.10.11.3.2.27</t>
+  </si>
+  <si>
+    <t>1.2.10.11.3.2.28</t>
+  </si>
+  <si>
+    <t>1.2.10.11.3.2.29</t>
+  </si>
+  <si>
+    <t>1.2.10.11.3.2.30</t>
+  </si>
+  <si>
+    <t>1.2.10.11.3.2.31</t>
+  </si>
+  <si>
+    <t>1.2.10.11.3.2.32</t>
+  </si>
+  <si>
+    <t>1.2.10.11.3.2.33</t>
+  </si>
+  <si>
+    <t>1.2.10.11.3.2.34</t>
+  </si>
+  <si>
+    <t>1.2.10.11.3.2.35</t>
+  </si>
+  <si>
+    <t>1.2.10.11.3.2.36</t>
+  </si>
+  <si>
+    <t>1.2.10.11.3.2.37</t>
+  </si>
+  <si>
+    <t>1.2.10.11.3.2.38</t>
+  </si>
+  <si>
+    <t>1.2.10.11.3.2.39</t>
+  </si>
+  <si>
+    <t>1.2.10.11.3.2.40</t>
+  </si>
+  <si>
+    <t>1.2.10.11.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.10.11.4.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.10.11.4.2</t>
+  </si>
+  <si>
+    <t>1.2.10.11.4.3</t>
+  </si>
+  <si>
+    <t>1.2.10.11.4.4</t>
+  </si>
+  <si>
+    <t>1.2.11.9.2.2</t>
+  </si>
+  <si>
+    <t>1.2.11.9.2.3</t>
+  </si>
+  <si>
+    <t>1.2.11.9.2.4</t>
+  </si>
+  <si>
+    <t>物料号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10K_R0603</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>410610100020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>410110100550</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>410110100800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>410110100590</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库内无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库内无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>411310300010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>410110100800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>411310300010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>450300200010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库内无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70×25×0.3mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钽电容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁珠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLM31PG121SN1_CZ1206</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>410311100010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.7k_0805A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>410110100180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>410110100030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.10.11.3.2.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>410110100070</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>410110100080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>410110100230</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10B05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库内无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>420310100010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电阻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>411490100010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>430410100160</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M3H6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M4螺丝_M4x7mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M4H7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>430490300010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>430410100170</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>430490300020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主机导轨安装扣_黑色 35mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>430490300030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>411520800010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>440300100010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>440300300010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>430410400020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>430410300050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M2.5×22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>430410100150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M2.5×6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M3×4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>450300100010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>420990200010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库内无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钽电容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>410210800010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>410210800020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>410210800030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>410210700010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴片电容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>410210100140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>410410100040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>410720100060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100Ω_TRF250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>410110100050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>410111000010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>410110100010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>410110100470</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>410110100480</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMS1117-3.3_3.3V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LRF020_LRF020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>410810100010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>419990200010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>419990200020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>471KD10_MOV1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>410210100030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>410210100150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>410110100490</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>410110100500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>410419900010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>410610200010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>A1BP-1A_EMC</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>U4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>420490300020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PIC16F887-I/PT_PT-PIC16F887</t>
-  </si>
-  <si>
-    <t>U5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>410610100030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0505LM-1W_B0505LS-1W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>420220200030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X5045PZ_SO8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>410610100040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>74HC32D_SOIC-14ND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>410610600030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4N33_dip6</t>
-  </si>
-  <si>
-    <t>U6</t>
-  </si>
-  <si>
-    <t>74HC32D_SOIC-14ND</t>
-  </si>
-  <si>
-    <t>U7</t>
-  </si>
-  <si>
-    <t>X5045PZ_SO8</t>
-  </si>
-  <si>
-    <t>U8</t>
-  </si>
-  <si>
-    <t>B0505LM-1W_B0505LS-1W</t>
-  </si>
-  <si>
-    <t>U9</t>
-  </si>
-  <si>
-    <t>4MHz_XL4.5</t>
-  </si>
-  <si>
-    <t>XTAL1</t>
-  </si>
-  <si>
-    <t>47K_R0603</t>
-  </si>
-  <si>
-    <t>R1, R2, R3, R4, R5</t>
-  </si>
-  <si>
-    <t>贴片2位拨码开关_贴片2位2.54mm间距拨码开关</t>
-  </si>
-  <si>
-    <t>u7</t>
-  </si>
-  <si>
-    <t>Header 8_HDR1X8</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>QRF0600_QRF0600</t>
-  </si>
-  <si>
-    <t>330uF_钽电容D型封装</t>
-  </si>
-  <si>
-    <t>C1,C2,C3,C4,C5,C6</t>
-  </si>
-  <si>
-    <t>Download 1_HDR1X6</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>0_R0603</t>
-  </si>
-  <si>
-    <t>R2,R3,R4,R5,R6,R7,R16</t>
-  </si>
-  <si>
-    <t>R8,R9,R10,R11 ,R13</t>
-  </si>
-  <si>
-    <t>200_R0603</t>
-  </si>
-  <si>
-    <t>R12</t>
-  </si>
-  <si>
-    <t>PIC16LF1827-I/SO_SOIC18</t>
-  </si>
-  <si>
-    <t>DS18B20_BCY-W3/E4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>410610300010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADM2587EBRWZ_SOIC20A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>420310100030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>450200200010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>411220200010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TPS1100D_SOIC8</t>
-  </si>
-  <si>
-    <t>传感器部分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.2.9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.2.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.2.10.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金属壳体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绝缘垫片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铜螺柱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>带垫片螺丝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沉头螺丝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>馈线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亚银纸标签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>热熔胶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电工胶带</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70×25mm</t>
-  </si>
-  <si>
-    <t>50×30mm</t>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>适量</t>
-  </si>
-  <si>
-    <t>适量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PCS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.2.10.2</t>
-  </si>
-  <si>
-    <t>1.2.10.3</t>
-  </si>
-  <si>
-    <t>1.2.10.4</t>
-  </si>
-  <si>
-    <t>1.2.10.5</t>
-  </si>
-  <si>
-    <t>1.2.10.6</t>
-  </si>
-  <si>
-    <t>1.2.10.7</t>
-  </si>
-  <si>
-    <t>1.2.10.8</t>
-  </si>
-  <si>
-    <t>1.2.10.9</t>
-  </si>
-  <si>
-    <t>1.2.10.10</t>
-  </si>
-  <si>
-    <t>1.2.10.11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杜邦线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>液晶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据集中器主板（厂返）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.2.11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>传感器上下壳体</t>
-  </si>
-  <si>
-    <t>热缩套管</t>
-  </si>
-  <si>
-    <t>双导铜箔胶带</t>
-  </si>
-  <si>
-    <t>导热耐高温双面胶</t>
-  </si>
-  <si>
-    <t>导热硅脂</t>
-  </si>
-  <si>
-    <t>红色导线</t>
-  </si>
-  <si>
-    <t>黑色导线</t>
-  </si>
-  <si>
-    <t>环氧树脂灌封胶</t>
-  </si>
-  <si>
-    <t>信息亚银纸标签</t>
-  </si>
-  <si>
-    <t>ID亚银纸标签</t>
-  </si>
-  <si>
-    <t>1.2.11.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.2.11.2</t>
-  </si>
-  <si>
-    <t>1.2.11.3</t>
-  </si>
-  <si>
-    <t>1.2.11.4</t>
-  </si>
-  <si>
-    <t>1.2.11.5</t>
-  </si>
-  <si>
-    <t>1.2.11.6</t>
-  </si>
-  <si>
-    <t>1.2.11.7</t>
-  </si>
-  <si>
-    <t>1.2.11.8</t>
-  </si>
-  <si>
-    <t>75.2×29.4×20mm</t>
-  </si>
-  <si>
-    <t>直径350.00×长度87.30</t>
-  </si>
-  <si>
-    <t>98×65×0.1mm</t>
-  </si>
-  <si>
-    <t>35mm</t>
-  </si>
-  <si>
-    <t>906型绝缘灌封胶</t>
-  </si>
-  <si>
-    <t>30×20mm</t>
-  </si>
-  <si>
-    <t>20×10mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电池组合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLH-4902_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.2.11.9.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.2.11.9.1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.2.11.9.1.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.2.11.9.1.3</t>
-  </si>
-  <si>
-    <t>1.2.11.9.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.2.11.9.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.2.11.9.2.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主机部分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.2.10.11.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.2.11.9.3.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.2.11.9.3.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>传感器节点板（厂返）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.2.11.9.3.2.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.2.11.9.3.2.2</t>
-  </si>
-  <si>
-    <t>1.2.11.9.3.2.3</t>
-  </si>
-  <si>
-    <t>1.2.11.9.3.2.4</t>
-  </si>
-  <si>
-    <t>1.2.11.9.3.2.5</t>
-  </si>
-  <si>
-    <t>1.2.11.9.3.2.6</t>
-  </si>
-  <si>
-    <t>1.2.11.9.3.2.7</t>
-  </si>
-  <si>
-    <t>1.2.11.9.3.2.8</t>
-  </si>
-  <si>
-    <t>1.2.11.9.3.2.9</t>
-  </si>
-  <si>
-    <t>1.1.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.2.11.9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导轨安装扣</t>
-  </si>
-  <si>
-    <t>导轨安装扣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>捆扎带</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安装配件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HCES-8011整机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>阶码</t>
-  </si>
-  <si>
-    <t>品号</t>
-  </si>
-  <si>
-    <t>品名</t>
-  </si>
-  <si>
-    <t>规格描述</t>
-  </si>
-  <si>
-    <t>位号</t>
-  </si>
-  <si>
-    <t>属性</t>
-  </si>
-  <si>
-    <t>单位</t>
-  </si>
-  <si>
-    <t>用量</t>
-  </si>
-  <si>
-    <t>单价</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>主机导轨安装扣_外形48mm*35mm*8mm,内槽长度43mm（黑）</t>
-  </si>
-  <si>
-    <t>螺丝</t>
-  </si>
-  <si>
-    <t>M3沉头螺丝_M3x6mm</t>
-  </si>
-  <si>
-    <t>面板安装扣</t>
-  </si>
-  <si>
-    <t>主机面板安装扣_外形30mm*25mm*15mm</t>
-  </si>
-  <si>
-    <t>根据客户要求发货，新柜开孔</t>
-  </si>
-  <si>
-    <t>根据客户要求发货，导轨安装</t>
-  </si>
-  <si>
-    <t>扎带_尺寸4.8mm*362 mm，工作温度-20℃~85℃</t>
-  </si>
-  <si>
-    <t>传感器数x2</t>
-  </si>
-  <si>
-    <t>根据传感器数量发货，抗老化，耐高温，阻燃</t>
-  </si>
-  <si>
-    <t>工业端子</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8PIN工业端子_弯脚间距5.08mm </t>
-  </si>
-  <si>
-    <t>自封袋</t>
-  </si>
-  <si>
-    <t>塑料自封袋_尺寸100mm*150mm</t>
-  </si>
-  <si>
-    <t>主机内包装</t>
-  </si>
-  <si>
-    <t>主机包装（珍珠棉）_外形152mm*147mm*63mm，内槽122mm*133mm*51mm</t>
-  </si>
-  <si>
-    <t>传感器内包装</t>
-  </si>
-  <si>
-    <t>传感器包装（珍珠棉）_外形152mm*147mm*25mm，内槽72mm*31mm*21mm</t>
-  </si>
-  <si>
-    <t>根据客户需求发货</t>
-  </si>
-  <si>
-    <t>包装上盖</t>
-  </si>
-  <si>
-    <t>包装上盖（珍珠棉）_外形152mm*147mm*8mm</t>
-  </si>
-  <si>
-    <t>说明书</t>
-  </si>
-  <si>
-    <t>主机说明书_</t>
-  </si>
-  <si>
-    <t>合格证</t>
-  </si>
-  <si>
-    <t>合格证_</t>
-  </si>
-  <si>
-    <t>包装箱</t>
-  </si>
-  <si>
-    <t>无线测温产品包装箱_尺寸180mm*160mm*160mm</t>
-  </si>
-  <si>
-    <t>包装箱外标签</t>
-  </si>
-  <si>
-    <t>纸质不干胶_尺寸80mm*40mm</t>
-  </si>
-  <si>
-    <t>2.4G 弯头短套天线</t>
-  </si>
-  <si>
-    <t>主机天线_ 5CM SMA 弯公头小天线 SMA内螺内针</t>
-  </si>
-  <si>
-    <t>主机</t>
-  </si>
-  <si>
-    <t>银色</t>
-  </si>
-  <si>
-    <t>M3绝缘垫片</t>
-  </si>
-  <si>
-    <t>PVC面板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定制尺寸</t>
-  </si>
-  <si>
-    <t>细胶棒</t>
-  </si>
-  <si>
-    <t>SMA外螺内孔线长75mm</t>
-  </si>
-  <si>
-    <t>4PIN杜邦线_长度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>放电管</t>
-  </si>
-  <si>
-    <t>220uF/16V_钽电容D型封装</t>
-  </si>
-  <si>
-    <t>电解电容</t>
-  </si>
-  <si>
-    <t>贴片电容</t>
-  </si>
-  <si>
-    <t>10uF/16V_钽电容A型封装</t>
-  </si>
-  <si>
-    <t>二极管</t>
-  </si>
-  <si>
-    <t>1N4148_二极管SMT1</t>
-  </si>
-  <si>
-    <t>排母</t>
-  </si>
-  <si>
-    <t>12864液晶排母_HDR1X22</t>
-  </si>
-  <si>
-    <t>单排2.54间距</t>
-  </si>
-  <si>
-    <t>排针</t>
-  </si>
-  <si>
-    <t>12864液晶排针_HDR1X22</t>
-  </si>
-  <si>
-    <t>单排2.54间距针长23mm</t>
-  </si>
-  <si>
-    <t>8pin工业端子_5.08-8PIN</t>
-  </si>
-  <si>
-    <t>5.08间距</t>
-  </si>
-  <si>
-    <t>ZigBee模块接口_HDR1X7</t>
-  </si>
-  <si>
-    <t>下载口_HDR1X6</t>
-  </si>
-  <si>
-    <t>开关接口_HDR1X4</t>
-  </si>
-  <si>
-    <t>单排2.54间距，可以直接焊接排线</t>
-  </si>
-  <si>
-    <t>继电器</t>
-  </si>
-  <si>
-    <t>压敏电容</t>
-  </si>
-  <si>
-    <t>跳线</t>
-  </si>
-  <si>
-    <t>短路线_DLQ</t>
-  </si>
-  <si>
-    <t>电阻</t>
-  </si>
-  <si>
-    <t>热敏电阻</t>
-  </si>
-  <si>
-    <t>不焊接</t>
-  </si>
-  <si>
-    <t>TVS管</t>
-  </si>
-  <si>
-    <t>电源模块</t>
-  </si>
-  <si>
-    <t>EMI滤波器</t>
-  </si>
-  <si>
-    <t>485芯片</t>
-  </si>
-  <si>
-    <t>芯片</t>
-  </si>
-  <si>
-    <t>光耦芯片</t>
-  </si>
-  <si>
-    <t>门电路芯片</t>
-  </si>
-  <si>
-    <t>模块</t>
-  </si>
-  <si>
-    <t>晶振</t>
-  </si>
-  <si>
-    <t>主机转接板</t>
-  </si>
-  <si>
-    <t>单排2.54间距8位排针</t>
-  </si>
-  <si>
-    <t>贴片拨码开关</t>
-  </si>
-  <si>
-    <t>不采购，不焊接</t>
-  </si>
-  <si>
-    <t>模组</t>
-  </si>
-  <si>
-    <t>窄体ZigBee模块</t>
-  </si>
-  <si>
-    <t>传感器</t>
-  </si>
-  <si>
-    <t>HCES-8011-S1-T1-W1_72mm*31mm*21mm（黄、绿、红）</t>
-  </si>
-  <si>
-    <t>传感器转接板</t>
-  </si>
-  <si>
-    <t>拨码开关</t>
-  </si>
-  <si>
-    <t>塑料贴片2位拨码开关_贴片2位2.54mm拨码开关</t>
-  </si>
-  <si>
-    <t>贴片塑料2位2.54mm拨码开关</t>
-  </si>
-  <si>
-    <t>宽体ZigBee模块</t>
-  </si>
-  <si>
-    <t>传感器节点板</t>
-  </si>
-  <si>
-    <t>无模具不焊接</t>
-  </si>
-  <si>
-    <t>C1,C2,C3不焊接</t>
-  </si>
-  <si>
-    <t>主芯片</t>
-  </si>
-  <si>
-    <t>MOS管</t>
-  </si>
-  <si>
-    <t>数据集中器xxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.2.10.11.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.2.10.11.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.2.10.11.3.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.2.10.11.3.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.2.10.11.3.2.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.2.10.11.3.2.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.2.10.11.3.2.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.2.10.11.3.2.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.2.10.11.3.2.5</t>
-  </si>
-  <si>
-    <t>1.2.10.11.3.2.6</t>
-  </si>
-  <si>
-    <t>1.2.10.11.3.2.7</t>
-  </si>
-  <si>
-    <t>1.2.10.11.3.2.8</t>
-  </si>
-  <si>
-    <t>1.2.10.11.3.2.9</t>
-  </si>
-  <si>
-    <t>1.2.10.11.3.2.10</t>
-  </si>
-  <si>
-    <t>1.2.10.11.3.2.11</t>
-  </si>
-  <si>
-    <t>1.2.10.11.3.2.12</t>
-  </si>
-  <si>
-    <t>1.2.10.11.3.2.13</t>
-  </si>
-  <si>
-    <t>1.2.10.11.3.2.14</t>
-  </si>
-  <si>
-    <t>1.2.10.11.3.2.15</t>
-  </si>
-  <si>
-    <t>1.2.10.11.3.2.16</t>
-  </si>
-  <si>
-    <t>1.2.10.11.3.2.17</t>
-  </si>
-  <si>
-    <t>1.2.10.11.3.2.18</t>
-  </si>
-  <si>
-    <t>1.2.10.11.3.2.19</t>
-  </si>
-  <si>
-    <t>1.2.10.11.3.2.20</t>
-  </si>
-  <si>
-    <t>1.2.10.11.3.2.21</t>
-  </si>
-  <si>
-    <t>1.2.10.11.3.2.22</t>
-  </si>
-  <si>
-    <t>1.2.10.11.3.2.23</t>
-  </si>
-  <si>
-    <t>1.2.10.11.3.2.24</t>
-  </si>
-  <si>
-    <t>1.2.10.11.3.2.25</t>
-  </si>
-  <si>
-    <t>1.2.10.11.3.2.27</t>
-  </si>
-  <si>
-    <t>1.2.10.11.3.2.28</t>
-  </si>
-  <si>
-    <t>1.2.10.11.3.2.29</t>
-  </si>
-  <si>
-    <t>1.2.10.11.3.2.30</t>
-  </si>
-  <si>
-    <t>1.2.10.11.3.2.31</t>
-  </si>
-  <si>
-    <t>1.2.10.11.3.2.32</t>
-  </si>
-  <si>
-    <t>1.2.10.11.3.2.33</t>
-  </si>
-  <si>
-    <t>1.2.10.11.3.2.34</t>
-  </si>
-  <si>
-    <t>1.2.10.11.3.2.35</t>
-  </si>
-  <si>
-    <t>1.2.10.11.3.2.36</t>
-  </si>
-  <si>
-    <t>1.2.10.11.3.2.37</t>
-  </si>
-  <si>
-    <t>1.2.10.11.3.2.38</t>
-  </si>
-  <si>
-    <t>1.2.10.11.3.2.39</t>
-  </si>
-  <si>
-    <t>1.2.10.11.3.2.40</t>
-  </si>
-  <si>
-    <t>1.2.10.11.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.2.10.11.4.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.2.10.11.4.2</t>
-  </si>
-  <si>
-    <t>1.2.10.11.4.3</t>
-  </si>
-  <si>
-    <t>1.2.10.11.4.4</t>
-  </si>
-  <si>
-    <t>1.2.11.9.2.2</t>
-  </si>
-  <si>
-    <t>1.2.11.9.2.3</t>
-  </si>
-  <si>
-    <t>1.2.11.9.2.4</t>
-  </si>
-  <si>
-    <t>物料号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10K_R0603</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>410610100020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>410110100550</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>410110100800</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>410110100590</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>库内无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>库内无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>411310300010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>410110100800</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>411310300010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>450300200010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>库内无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70×25×0.3mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钽电容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>磁珠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BLM31PG121SN1_CZ1206</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>410311100010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.7k_0805A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>410110100180</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>410110100030</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.2.10.11.3.2.26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>410110100070</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>410110100080</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>410110100230</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10B05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>库内无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>420310100010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电阻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>35mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>411490100010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>430410100160</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M3H6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M4螺丝_M4x7mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M4H7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>430490300010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>430410100170</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>430490300020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主机导轨安装扣_黑色 35mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>430490300030</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>411520800010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>440300100010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>440300300010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>430410400020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>430410300050</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M2.5×22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>430410100150</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M2.5×6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M3×4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>450300100010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>420990200010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>库内无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钽电容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>410210800010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>410210800020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>410210800030</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>410210700010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴片电容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>410210100140</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>410410100040</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>410720100060</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100Ω_TRF250</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>410110100050</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>410111000010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>410110100010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>410110100470</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>410110100480</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>410110100490</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AMS1117-3.3_3.3V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LRF020_LRF020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>410810100010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADM2587EBRWZ_SOIC20A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>419990200010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>419990200020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排针</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>471KD10_MOV1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>410210100030</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>410210100150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>450200100010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>450200100020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>411010500030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>411010600030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>450200200020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>440100400010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>440100400020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>440100400030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>440100400040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>440100400050</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1544,7 +1639,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1604,6 +1699,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1659,7 +1766,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1999,9 +2106,6 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2028,6 +2132,18 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2337,8 +2453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="N56" sqref="N56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2360,40 +2476,40 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="J1" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="K1" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>193</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -2424,7 +2540,7 @@
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="15" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="17"/>
@@ -2437,17 +2553,17 @@
     <row r="4" spans="1:15">
       <c r="A4" s="20"/>
       <c r="B4" s="76" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="G4" s="22"/>
       <c r="H4" s="20"/>
@@ -2459,24 +2575,24 @@
       </c>
       <c r="K4" s="20"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="107" t="s">
-        <v>382</v>
+      <c r="M4" s="122" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="20"/>
       <c r="B5" s="76" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="20"/>
       <c r="E5" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G5" s="22"/>
       <c r="H5" s="20"/>
@@ -2488,30 +2604,30 @@
       </c>
       <c r="K5" s="20"/>
       <c r="L5" s="3"/>
-      <c r="M5" s="107" t="s">
-        <v>377</v>
+      <c r="M5" s="122" t="s">
+        <v>370</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="20"/>
       <c r="B6" s="76" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="G6" s="22"/>
       <c r="H6" s="20"/>
@@ -2523,30 +2639,30 @@
       </c>
       <c r="K6" s="20"/>
       <c r="L6" s="23"/>
-      <c r="M6" s="107" t="s">
-        <v>383</v>
+      <c r="M6" s="122" t="s">
+        <v>376</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="20"/>
       <c r="B7" s="76" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="G7" s="22"/>
       <c r="H7" s="20"/>
@@ -2558,26 +2674,26 @@
       </c>
       <c r="K7" s="20"/>
       <c r="L7" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="M7" s="107" t="s">
-        <v>384</v>
+        <v>199</v>
+      </c>
+      <c r="M7" s="122" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="20"/>
       <c r="B8" s="76" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="3" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="G8" s="22"/>
       <c r="H8" s="20"/>
@@ -2589,54 +2705,54 @@
       </c>
       <c r="K8" s="20"/>
       <c r="L8" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="M8" s="107" t="s">
-        <v>386</v>
+        <v>200</v>
+      </c>
+      <c r="M8" s="122" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="118" t="s">
-        <v>387</v>
-      </c>
-      <c r="B9" s="119"/>
-      <c r="C9" s="118" t="s">
+      <c r="A9" s="117" t="s">
+        <v>380</v>
+      </c>
+      <c r="B9" s="118"/>
+      <c r="C9" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="118"/>
-      <c r="E9" s="120" t="s">
-        <v>187</v>
-      </c>
-      <c r="F9" s="121" t="s">
-        <v>208</v>
-      </c>
-      <c r="G9" s="122"/>
-      <c r="H9" s="118"/>
-      <c r="I9" s="120" t="s">
-        <v>2</v>
-      </c>
-      <c r="J9" s="121" t="s">
-        <v>209</v>
-      </c>
-      <c r="K9" s="118"/>
-      <c r="L9" s="120" t="s">
-        <v>210</v>
+      <c r="D9" s="117"/>
+      <c r="E9" s="119" t="s">
+        <v>180</v>
+      </c>
+      <c r="F9" s="120" t="s">
+        <v>201</v>
+      </c>
+      <c r="G9" s="121"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="119" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="120" t="s">
+        <v>202</v>
+      </c>
+      <c r="K9" s="117"/>
+      <c r="L9" s="119" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="20"/>
       <c r="B10" s="76" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="3" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="G10" s="22"/>
       <c r="H10" s="20"/>
@@ -2648,24 +2764,24 @@
       </c>
       <c r="K10" s="20"/>
       <c r="L10" s="23"/>
-      <c r="M10" s="107" t="s">
-        <v>388</v>
+      <c r="M10" s="122" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="20"/>
       <c r="B11" s="76" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="3" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="4"/>
@@ -2677,8 +2793,8 @@
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="107" t="s">
-        <v>389</v>
+      <c r="M11" s="122" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -2689,7 +2805,7 @@
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="F12" s="24"/>
       <c r="G12" s="17"/>
@@ -2702,17 +2818,17 @@
     <row r="13" spans="1:15">
       <c r="A13" s="20"/>
       <c r="B13" s="76" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="3" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="4"/>
@@ -2724,21 +2840,22 @@
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="23"/>
+      <c r="M13" s="122"/>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="20"/>
       <c r="B14" s="76" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="3" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="4"/>
@@ -2750,23 +2867,24 @@
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="3" t="s">
-        <v>219</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="M14" s="122"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="20"/>
       <c r="B15" s="76" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="3" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="4"/>
@@ -2778,21 +2896,22 @@
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="3"/>
+      <c r="M15" s="122"/>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="20"/>
       <c r="B16" s="76" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="3" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="4"/>
@@ -2804,21 +2923,22 @@
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="3"/>
+      <c r="M16" s="122"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="20"/>
       <c r="B17" s="76" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="20"/>
       <c r="E17" s="3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="4"/>
@@ -2830,21 +2950,22 @@
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="3"/>
+      <c r="M17" s="122"/>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="20"/>
       <c r="B18" s="76" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="20"/>
       <c r="E18" s="3" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="4"/>
@@ -2856,24 +2977,24 @@
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="3"/>
-      <c r="M18" s="107" t="s">
-        <v>390</v>
+      <c r="M18" s="122" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="20"/>
       <c r="B19" s="76" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="20"/>
       <c r="E19" s="23" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="4"/>
@@ -2885,21 +3006,24 @@
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="23"/>
+      <c r="M19" s="124" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="20"/>
       <c r="B20" s="76" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D20" s="20"/>
       <c r="E20" s="27" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="F20" s="28" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="G20" s="22"/>
       <c r="H20" s="20"/>
@@ -2907,20 +3031,21 @@
         <v>2</v>
       </c>
       <c r="J20" s="28" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="K20" s="20"/>
       <c r="L20" s="30"/>
+      <c r="M20" s="122"/>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="9"/>
       <c r="B21" s="12"/>
       <c r="C21" s="9" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="31" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="F21" s="32" t="s">
         <v>17</v>
@@ -2939,51 +3064,52 @@
     <row r="22" spans="1:14">
       <c r="A22" s="20"/>
       <c r="B22" s="76" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D22" s="20"/>
       <c r="E22" s="29" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F22" s="34" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="G22" s="22"/>
       <c r="H22" s="20"/>
       <c r="I22" s="29" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="J22" s="28" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="K22" s="20"/>
       <c r="L22" s="30"/>
+      <c r="M22" s="122"/>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="20"/>
       <c r="B23" s="76" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D23" s="20"/>
       <c r="E23" s="29" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F23" s="34" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="G23" s="22"/>
       <c r="H23" s="20"/>
       <c r="I23" s="29" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="J23" s="28" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="K23" s="20"/>
       <c r="L23" s="30"/>
@@ -2991,212 +3117,222 @@
     <row r="24" spans="1:14">
       <c r="A24" s="20"/>
       <c r="B24" s="76" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D24" s="20"/>
       <c r="E24" s="29" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F24" s="34" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="G24" s="22"/>
       <c r="H24" s="20"/>
       <c r="I24" s="29" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="J24" s="28" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="K24" s="20"/>
       <c r="L24" s="30"/>
-      <c r="M24" s="107" t="s">
-        <v>392</v>
+      <c r="M24" s="122" t="s">
+        <v>385</v>
       </c>
       <c r="N24" s="8" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="20"/>
       <c r="B25" s="76" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D25" s="20"/>
       <c r="E25" s="29" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F25" s="34" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="G25" s="22"/>
       <c r="H25" s="20"/>
       <c r="I25" s="29" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="J25" s="28" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="K25" s="20"/>
       <c r="L25" s="30"/>
-      <c r="M25" s="107" t="s">
-        <v>394</v>
+      <c r="M25" s="122" t="s">
+        <v>387</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="20"/>
       <c r="B26" s="76" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D26" s="20"/>
       <c r="E26" s="29" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F26" s="34" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="G26" s="22"/>
       <c r="H26" s="20"/>
       <c r="I26" s="29" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="J26" s="28" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="K26" s="20"/>
       <c r="L26" s="30"/>
-      <c r="M26" s="107" t="s">
-        <v>377</v>
+      <c r="M26" s="122" t="s">
+        <v>370</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="20"/>
       <c r="B27" s="76" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D27" s="20"/>
       <c r="E27" s="35" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="F27" s="36" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="G27" s="22"/>
       <c r="H27" s="20"/>
       <c r="I27" s="29" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="J27" s="28" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="K27" s="20"/>
       <c r="L27" s="30"/>
+      <c r="M27" s="124" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="20"/>
       <c r="B28" s="76" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="29" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F28" s="34" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G28" s="22"/>
       <c r="H28" s="20"/>
       <c r="I28" s="29" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="J28" s="28" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="K28" s="20"/>
       <c r="L28" s="30"/>
+      <c r="M28" s="124" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="20"/>
       <c r="B29" s="76" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D29" s="20"/>
       <c r="E29" s="29" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F29" s="34" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G29" s="22"/>
       <c r="H29" s="20"/>
       <c r="I29" s="29" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="J29" s="28" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="K29" s="20"/>
       <c r="L29" s="30"/>
+      <c r="M29" s="122"/>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="20"/>
       <c r="B30" s="76" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D30" s="20"/>
       <c r="E30" s="29" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F30" s="34" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="G30" s="22"/>
       <c r="H30" s="20"/>
       <c r="I30" s="29"/>
       <c r="J30" s="28" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="K30" s="20"/>
       <c r="L30" s="30"/>
+      <c r="M30" s="124" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="20"/>
       <c r="B31" s="76" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D31" s="20"/>
       <c r="E31" s="29" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F31" s="28"/>
       <c r="G31" s="22"/>
@@ -3205,19 +3341,19 @@
       <c r="J31" s="28"/>
       <c r="K31" s="20"/>
       <c r="L31" s="30"/>
-      <c r="M31" s="107" t="s">
-        <v>397</v>
+      <c r="M31" s="122" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="9"/>
       <c r="B32" s="12"/>
       <c r="C32" s="9" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="31" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="F32" s="32"/>
       <c r="G32" s="11"/>
@@ -3230,40 +3366,41 @@
     <row r="33" spans="1:13">
       <c r="A33" s="20"/>
       <c r="B33" s="76" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D33" s="20"/>
       <c r="E33" s="29" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F33" s="34" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="G33" s="22"/>
       <c r="H33" s="20"/>
       <c r="I33" s="29" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="J33" s="28" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="K33" s="20"/>
       <c r="L33" s="30"/>
+      <c r="M33" s="122"/>
     </row>
     <row r="34" spans="1:13" s="43" customFormat="1">
       <c r="A34" s="37"/>
       <c r="B34" s="102" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C34" s="37" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D34" s="37"/>
       <c r="E34" s="38" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F34" s="39"/>
       <c r="G34" s="40"/>
@@ -3272,21 +3409,21 @@
       <c r="J34" s="41"/>
       <c r="K34" s="37"/>
       <c r="L34" s="42"/>
-      <c r="M34" s="113" t="s">
-        <v>398</v>
+      <c r="M34" s="122" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="44"/>
       <c r="B35" s="103" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C35" s="44" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="D35" s="44"/>
       <c r="E35" s="2" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="F35" s="45"/>
       <c r="G35" s="46"/>
@@ -3295,43 +3432,46 @@
       <c r="J35" s="45"/>
       <c r="K35" s="44"/>
       <c r="L35" s="47"/>
+      <c r="M35" s="122"/>
     </row>
     <row r="36" spans="1:13" s="43" customFormat="1">
       <c r="A36" s="37"/>
       <c r="B36" s="102" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C36" s="37" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D36" s="37"/>
       <c r="E36" s="38" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F36" s="39" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="G36" s="40"/>
       <c r="H36" s="37"/>
       <c r="I36" s="38" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="J36" s="41" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="K36" s="37"/>
       <c r="L36" s="42"/>
-      <c r="M36" s="113"/>
+      <c r="M36" s="124" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="48"/>
       <c r="B37" s="104"/>
       <c r="C37" s="48" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D37" s="48"/>
       <c r="E37" s="49" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F37" s="50"/>
       <c r="G37" s="51"/>
@@ -3344,14 +3484,14 @@
     <row r="38" spans="1:13">
       <c r="A38" s="54"/>
       <c r="B38" s="105" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C38" s="54" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D38" s="54"/>
       <c r="E38" s="55" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="F38" s="56" t="s">
         <v>28</v>
@@ -3368,21 +3508,21 @@
       </c>
       <c r="K38" s="54"/>
       <c r="L38" s="55"/>
-      <c r="M38" s="107" t="s">
-        <v>420</v>
+      <c r="M38" s="122" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="54"/>
       <c r="B39" s="105" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C39" s="54" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D39" s="54"/>
       <c r="E39" s="55" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="F39" s="56" t="s">
         <v>30</v>
@@ -3399,24 +3539,24 @@
       </c>
       <c r="K39" s="54"/>
       <c r="L39" s="55"/>
-      <c r="M39" s="107" t="s">
-        <v>421</v>
+      <c r="M39" s="122" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="20"/>
       <c r="B40" s="76" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D40" s="20"/>
       <c r="E40" s="60" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="F40" s="61" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="G40" s="62" t="s">
         <v>18</v>
@@ -3430,21 +3570,21 @@
       </c>
       <c r="K40" s="20"/>
       <c r="L40" s="60"/>
-      <c r="M40" s="107" t="s">
-        <v>402</v>
+      <c r="M40" s="122" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="20"/>
       <c r="B41" s="76" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="D41" s="20"/>
       <c r="E41" s="60" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="F41" s="61" t="s">
         <v>19</v>
@@ -3461,21 +3601,21 @@
       </c>
       <c r="K41" s="20"/>
       <c r="L41" s="60"/>
-      <c r="M41" s="107" t="s">
-        <v>404</v>
+      <c r="M41" s="122" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="99.75">
       <c r="A42" s="20"/>
       <c r="B42" s="76" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D42" s="20"/>
       <c r="E42" s="60" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="F42" s="61" t="s">
         <v>21</v>
@@ -3496,17 +3636,17 @@
     <row r="43" spans="1:13" ht="42.75">
       <c r="A43" s="20"/>
       <c r="B43" s="76" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D43" s="20"/>
       <c r="E43" s="60" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F43" s="61" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="G43" s="62" t="s">
         <v>23</v>
@@ -3524,14 +3664,14 @@
     <row r="44" spans="1:13">
       <c r="A44" s="20"/>
       <c r="B44" s="76" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="D44" s="20"/>
       <c r="E44" s="60" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="F44" s="61" t="s">
         <v>24</v>
@@ -3548,26 +3688,26 @@
       </c>
       <c r="K44" s="20"/>
       <c r="L44" s="60"/>
-      <c r="M44" s="107" t="s">
-        <v>406</v>
+      <c r="M44" s="122" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="28.5">
       <c r="A45" s="108" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B45" s="109" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="C45" s="108" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D45" s="108"/>
       <c r="E45" s="110" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="F45" s="111" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="G45" s="62" t="s">
         <v>26</v>
@@ -3585,17 +3725,17 @@
     <row r="46" spans="1:13">
       <c r="A46" s="20"/>
       <c r="B46" s="76" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="D46" s="20"/>
       <c r="E46" s="60" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="F46" s="61" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G46" s="62" t="s">
         <v>27</v>
@@ -3609,24 +3749,24 @@
       </c>
       <c r="K46" s="20"/>
       <c r="L46" s="60"/>
-      <c r="M46" s="107" t="s">
-        <v>407</v>
+      <c r="M46" s="122" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="20"/>
       <c r="B47" s="76" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="D47" s="20"/>
       <c r="E47" s="60" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="F47" s="61" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="G47" s="62" t="s">
         <v>32</v>
@@ -3640,23 +3780,24 @@
       </c>
       <c r="K47" s="20"/>
       <c r="L47" s="60" t="s">
-        <v>249</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="M47" s="122"/>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="20"/>
       <c r="B48" s="76" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D48" s="20"/>
       <c r="E48" s="63" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="F48" s="61" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="G48" s="62"/>
       <c r="H48" s="20"/>
@@ -3666,23 +3807,24 @@
       <c r="J48" s="28"/>
       <c r="K48" s="20"/>
       <c r="L48" s="63" t="s">
-        <v>252</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="M48" s="122"/>
     </row>
     <row r="49" spans="1:23">
       <c r="A49" s="20"/>
       <c r="B49" s="76" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D49" s="20"/>
       <c r="E49" s="60" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="F49" s="61" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="G49" s="62" t="s">
         <v>33</v>
@@ -3696,26 +3838,26 @@
       </c>
       <c r="K49" s="20"/>
       <c r="L49" s="60" t="s">
-        <v>254</v>
-      </c>
-      <c r="M49" s="107" t="s">
-        <v>388</v>
+        <v>247</v>
+      </c>
+      <c r="M49" s="122" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="50" spans="1:23">
       <c r="A50" s="20"/>
       <c r="B50" s="76" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="D50" s="20"/>
       <c r="E50" s="60" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="F50" s="61" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="G50" s="62" t="s">
         <v>34</v>
@@ -3729,9 +3871,9 @@
       </c>
       <c r="K50" s="20"/>
       <c r="L50" s="64" t="s">
-        <v>249</v>
-      </c>
-      <c r="M50" s="114"/>
+        <v>242</v>
+      </c>
+      <c r="M50" s="123"/>
       <c r="N50" s="65"/>
       <c r="O50" s="65"/>
       <c r="P50" s="66"/>
@@ -3746,17 +3888,17 @@
     <row r="51" spans="1:23">
       <c r="A51" s="20"/>
       <c r="B51" s="76" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="D51" s="20"/>
       <c r="E51" s="60" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="F51" s="61" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="G51" s="62" t="s">
         <v>35</v>
@@ -3770,9 +3912,9 @@
       </c>
       <c r="K51" s="20"/>
       <c r="L51" s="64" t="s">
-        <v>249</v>
-      </c>
-      <c r="M51" s="114"/>
+        <v>242</v>
+      </c>
+      <c r="M51" s="123"/>
       <c r="N51" s="65"/>
       <c r="O51" s="65"/>
       <c r="P51" s="66"/>
@@ -3787,17 +3929,17 @@
     <row r="52" spans="1:23">
       <c r="A52" s="20"/>
       <c r="B52" s="76" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="D52" s="20"/>
       <c r="E52" s="60" t="s">
+        <v>243</v>
+      </c>
+      <c r="F52" s="61" t="s">
         <v>250</v>
-      </c>
-      <c r="F52" s="61" t="s">
-        <v>257</v>
       </c>
       <c r="G52" s="62" t="s">
         <v>36</v>
@@ -3811,20 +3953,21 @@
       </c>
       <c r="K52" s="20"/>
       <c r="L52" s="60" t="s">
-        <v>258</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="M52" s="122"/>
     </row>
     <row r="53" spans="1:23">
       <c r="A53" s="20"/>
       <c r="B53" s="76" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="D53" s="20"/>
       <c r="E53" s="60" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="F53" s="61" t="s">
         <v>37</v>
@@ -3841,24 +3984,24 @@
       </c>
       <c r="K53" s="20"/>
       <c r="L53" s="60"/>
-      <c r="M53" s="107" t="s">
-        <v>408</v>
+      <c r="M53" s="122" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="54" spans="1:23">
       <c r="A54" s="20"/>
       <c r="B54" s="76" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="D54" s="20"/>
       <c r="E54" s="60" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="F54" s="61" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="G54" s="62" t="s">
         <v>39</v>
@@ -3872,24 +4015,24 @@
       </c>
       <c r="K54" s="20"/>
       <c r="L54" s="60"/>
-      <c r="M54" s="107" t="s">
-        <v>425</v>
+      <c r="M54" s="122" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="55" spans="1:23">
       <c r="A55" s="20"/>
       <c r="B55" s="76" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="D55" s="20"/>
       <c r="E55" s="60" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F55" s="61" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="G55" s="62" t="s">
         <v>40</v>
@@ -3903,18 +4046,21 @@
       </c>
       <c r="K55" s="20"/>
       <c r="L55" s="60"/>
+      <c r="M55" s="124" t="s">
+        <v>441</v>
+      </c>
     </row>
     <row r="56" spans="1:23" ht="28.5">
       <c r="A56" s="20"/>
       <c r="B56" s="76" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="D56" s="20"/>
       <c r="E56" s="60" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="F56" s="61" t="s">
         <v>41</v>
@@ -3935,14 +4081,14 @@
     <row r="57" spans="1:23" ht="28.5">
       <c r="A57" s="20"/>
       <c r="B57" s="76" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D57" s="20"/>
       <c r="E57" s="60" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="F57" s="61" t="s">
         <v>43</v>
@@ -3963,17 +4109,17 @@
     <row r="58" spans="1:23" ht="28.5">
       <c r="A58" s="20"/>
       <c r="B58" s="76" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="D58" s="20"/>
       <c r="E58" s="60" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="F58" s="61" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="G58" s="62" t="s">
         <v>45</v>
@@ -3991,17 +4137,17 @@
     <row r="59" spans="1:23">
       <c r="A59" s="20"/>
       <c r="B59" s="76" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="D59" s="20"/>
       <c r="E59" s="60" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="F59" s="61" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="G59" s="62" t="s">
         <v>46</v>
@@ -4015,21 +4161,21 @@
       </c>
       <c r="K59" s="20"/>
       <c r="L59" s="60"/>
-      <c r="M59" s="107" t="s">
-        <v>411</v>
+      <c r="M59" s="122" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="60" spans="1:23">
       <c r="A60" s="20"/>
       <c r="B60" s="76" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="D60" s="20"/>
       <c r="E60" s="60" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="F60" s="61" t="s">
         <v>47</v>
@@ -4046,21 +4192,21 @@
       </c>
       <c r="K60" s="20"/>
       <c r="L60" s="60"/>
-      <c r="M60" s="107" t="s">
-        <v>413</v>
+      <c r="M60" s="122" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="61" spans="1:23">
       <c r="A61" s="20"/>
       <c r="B61" s="76" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="D61" s="20"/>
       <c r="E61" s="60" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="F61" s="61" t="s">
         <v>49</v>
@@ -4077,23 +4223,23 @@
       </c>
       <c r="K61" s="20"/>
       <c r="L61" s="60" t="s">
-        <v>265</v>
-      </c>
-      <c r="M61" s="107" t="s">
-        <v>414</v>
+        <v>258</v>
+      </c>
+      <c r="M61" s="122" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="62" spans="1:23" ht="57">
       <c r="A62" s="20"/>
       <c r="B62" s="76" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D62" s="20"/>
       <c r="E62" s="60" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="F62" s="61" t="s">
         <v>51</v>
@@ -4114,14 +4260,14 @@
     <row r="63" spans="1:23">
       <c r="A63" s="20"/>
       <c r="B63" s="76" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="D63" s="20"/>
       <c r="E63" s="60" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="F63" s="61" t="s">
         <v>53</v>
@@ -4142,14 +4288,14 @@
     <row r="64" spans="1:23">
       <c r="A64" s="20"/>
       <c r="B64" s="76" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D64" s="20"/>
       <c r="E64" s="60" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="F64" s="61" t="s">
         <v>55</v>
@@ -4170,14 +4316,14 @@
     <row r="65" spans="1:13">
       <c r="A65" s="20"/>
       <c r="B65" s="76" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="D65" s="20"/>
       <c r="E65" s="60" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="F65" s="61" t="s">
         <v>57</v>
@@ -4198,14 +4344,14 @@
     <row r="66" spans="1:13">
       <c r="A66" s="20"/>
       <c r="B66" s="76" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D66" s="20"/>
       <c r="E66" s="60" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="F66" s="61" t="s">
         <v>59</v>
@@ -4222,23 +4368,23 @@
       </c>
       <c r="K66" s="20"/>
       <c r="L66" s="60" t="s">
-        <v>265</v>
-      </c>
-      <c r="M66" s="107" t="s">
-        <v>415</v>
+        <v>258</v>
+      </c>
+      <c r="M66" s="122" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="28.5">
       <c r="A67" s="20"/>
       <c r="B67" s="76" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="D67" s="20"/>
       <c r="E67" s="60" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="F67" s="61" t="s">
         <v>61</v>
@@ -4255,18 +4401,21 @@
       </c>
       <c r="K67" s="20"/>
       <c r="L67" s="60"/>
+      <c r="M67" s="122" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="108" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="B68" s="109"/>
       <c r="C68" s="108" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="D68" s="108"/>
       <c r="E68" s="110" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F68" s="111" t="s">
         <v>63</v>
@@ -4287,20 +4436,20 @@
     <row r="69" spans="1:13">
       <c r="A69" s="20"/>
       <c r="B69" s="76" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="D69" s="20"/>
       <c r="E69" s="60" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="F69" s="61" t="s">
+        <v>421</v>
+      </c>
+      <c r="G69" s="62" t="s">
         <v>65</v>
-      </c>
-      <c r="G69" s="62" t="s">
-        <v>66</v>
       </c>
       <c r="H69" s="20"/>
       <c r="I69" s="29" t="s">
@@ -4311,24 +4460,27 @@
       </c>
       <c r="K69" s="20"/>
       <c r="L69" s="60"/>
+      <c r="M69" s="122" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="20"/>
       <c r="B70" s="76" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="D70" s="20"/>
       <c r="E70" s="60" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F70" s="61" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="G70" s="62" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H70" s="20"/>
       <c r="I70" s="29" t="s">
@@ -4339,24 +4491,27 @@
       </c>
       <c r="K70" s="20"/>
       <c r="L70" s="60"/>
+      <c r="M70" s="122" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="20"/>
       <c r="B71" s="76" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C71" s="20" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="D71" s="20"/>
       <c r="E71" s="60" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="F71" s="61" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="G71" s="62" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H71" s="20"/>
       <c r="I71" s="29" t="s">
@@ -4367,24 +4522,25 @@
       </c>
       <c r="K71" s="20"/>
       <c r="L71" s="60"/>
+      <c r="M71" s="122"/>
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="20"/>
       <c r="B72" s="76" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="D72" s="20"/>
       <c r="E72" s="60" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="F72" s="61" t="s">
-        <v>69</v>
+        <v>423</v>
       </c>
       <c r="G72" s="62" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H72" s="20"/>
       <c r="I72" s="29" t="s">
@@ -4395,24 +4551,27 @@
       </c>
       <c r="K72" s="20"/>
       <c r="L72" s="60"/>
+      <c r="M72" s="122" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="20"/>
       <c r="B73" s="76" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C73" s="20" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D73" s="20"/>
       <c r="E73" s="60" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F73" s="61" t="s">
-        <v>71</v>
+        <v>431</v>
       </c>
       <c r="G73" s="62" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H73" s="20"/>
       <c r="I73" s="29" t="s">
@@ -4423,24 +4582,27 @@
       </c>
       <c r="K73" s="20"/>
       <c r="L73" s="60"/>
+      <c r="M73" s="122" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="20"/>
       <c r="B74" s="76" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="D74" s="20"/>
       <c r="E74" s="60" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="F74" s="61" t="s">
-        <v>73</v>
+        <v>429</v>
       </c>
       <c r="G74" s="62" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H74" s="20"/>
       <c r="I74" s="29" t="s">
@@ -4451,24 +4613,27 @@
       </c>
       <c r="K74" s="20"/>
       <c r="L74" s="60"/>
+      <c r="M74" s="122" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="20"/>
       <c r="B75" s="76" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="C75" s="20" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="D75" s="20"/>
       <c r="E75" s="60" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="F75" s="61" t="s">
-        <v>75</v>
+        <v>427</v>
       </c>
       <c r="G75" s="62" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H75" s="20"/>
       <c r="I75" s="29" t="s">
@@ -4479,26 +4644,29 @@
       </c>
       <c r="K75" s="20"/>
       <c r="L75" s="60" t="s">
-        <v>265</v>
+        <v>258</v>
+      </c>
+      <c r="M75" s="122" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="20"/>
       <c r="B76" s="76" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C76" s="20" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="D76" s="20"/>
       <c r="E76" s="60" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="F76" s="61" t="s">
-        <v>77</v>
+        <v>425</v>
       </c>
       <c r="G76" s="62" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H76" s="20"/>
       <c r="I76" s="29" t="s">
@@ -4509,24 +4677,27 @@
       </c>
       <c r="K76" s="20"/>
       <c r="L76" s="60"/>
+      <c r="M76" s="122" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="20"/>
       <c r="B77" s="76" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="D77" s="20"/>
       <c r="E77" s="60" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="F77" s="61" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G77" s="62" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H77" s="20"/>
       <c r="I77" s="29" t="s">
@@ -4537,19 +4708,19 @@
       </c>
       <c r="K77" s="20"/>
       <c r="L77" s="60"/>
-      <c r="M77" s="107" t="s">
-        <v>418</v>
+      <c r="M77" s="122" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="44"/>
       <c r="B78" s="103"/>
       <c r="C78" s="44" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="D78" s="44"/>
       <c r="E78" s="71" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="F78" s="45"/>
       <c r="G78" s="46"/>
@@ -4562,17 +4733,17 @@
     <row r="79" spans="1:13" s="73" customFormat="1">
       <c r="A79" s="4"/>
       <c r="B79" s="6" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C79" s="20" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="D79" s="20"/>
       <c r="E79" s="72" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G79" s="22" t="s">
         <v>32</v>
@@ -4586,27 +4757,27 @@
       </c>
       <c r="K79" s="20"/>
       <c r="L79" s="23" t="s">
-        <v>276</v>
-      </c>
-      <c r="M79" s="115"/>
+        <v>269</v>
+      </c>
+      <c r="M79" s="122"/>
     </row>
     <row r="80" spans="1:13" ht="28.5">
       <c r="A80" s="4"/>
       <c r="B80" s="6" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="D80" s="20"/>
       <c r="E80" s="72" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G80" s="22" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H80" s="20"/>
       <c r="I80" s="29" t="s">
@@ -4621,20 +4792,20 @@
     <row r="81" spans="1:13">
       <c r="A81" s="4"/>
       <c r="B81" s="6" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="D81" s="20"/>
       <c r="E81" s="72" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G81" s="22" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H81" s="20"/>
       <c r="I81" s="29" t="s">
@@ -4645,23 +4816,23 @@
       </c>
       <c r="K81" s="20"/>
       <c r="L81" s="23" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="82" spans="1:13">
       <c r="A82" s="4"/>
       <c r="B82" s="6" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C82" s="20" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="D82" s="20"/>
       <c r="E82" s="3" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="G82" s="22" t="s">
         <v>33</v>
@@ -4675,24 +4846,27 @@
       </c>
       <c r="K82" s="20"/>
       <c r="L82" s="23" t="s">
-        <v>280</v>
+        <v>273</v>
+      </c>
+      <c r="M82" s="122" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="83" spans="1:13">
       <c r="A83" s="9"/>
       <c r="B83" s="12"/>
       <c r="C83" s="9" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="74" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F83" s="12"/>
       <c r="G83" s="11"/>
       <c r="H83" s="9"/>
       <c r="I83" s="31" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="J83" s="32"/>
       <c r="K83" s="9"/>
@@ -4701,229 +4875,239 @@
     <row r="84" spans="1:13" s="73" customFormat="1">
       <c r="A84" s="20"/>
       <c r="B84" s="76" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C84" s="20" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D84" s="20"/>
       <c r="E84" s="75" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F84" s="76" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="G84" s="22"/>
       <c r="H84" s="20"/>
       <c r="I84" s="29" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="J84" s="28" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="K84" s="20"/>
       <c r="L84" s="30"/>
-      <c r="M84" s="115"/>
+      <c r="M84" s="122"/>
     </row>
     <row r="85" spans="1:13" s="73" customFormat="1">
       <c r="A85" s="20"/>
       <c r="B85" s="76" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="C85" s="20" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D85" s="20"/>
       <c r="E85" s="75" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F85" s="76" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="G85" s="22"/>
       <c r="H85" s="20"/>
       <c r="I85" s="29" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="J85" s="28" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="K85" s="20"/>
       <c r="L85" s="30"/>
-      <c r="M85" s="115"/>
+      <c r="M85" s="114"/>
     </row>
     <row r="86" spans="1:13" s="73" customFormat="1">
       <c r="A86" s="20"/>
       <c r="B86" s="76" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D86" s="20"/>
       <c r="E86" s="75" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F86" s="76" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="G86" s="22"/>
       <c r="H86" s="20"/>
       <c r="I86" s="29" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="J86" s="28" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="K86" s="20"/>
       <c r="L86" s="30"/>
-      <c r="M86" s="115"/>
+      <c r="M86" s="122" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="87" spans="1:13" s="73" customFormat="1">
       <c r="A87" s="20"/>
       <c r="B87" s="76" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D87" s="20"/>
       <c r="E87" s="75" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F87" s="76" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="G87" s="22"/>
       <c r="H87" s="20"/>
       <c r="I87" s="29" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="J87" s="28" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="K87" s="20"/>
       <c r="L87" s="30"/>
-      <c r="M87" s="115"/>
+      <c r="M87" s="122" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="88" spans="1:13" s="73" customFormat="1">
       <c r="A88" s="20"/>
       <c r="B88" s="76" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D88" s="20"/>
       <c r="E88" s="75" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F88" s="76"/>
       <c r="G88" s="22"/>
       <c r="H88" s="20"/>
       <c r="I88" s="29" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="J88" s="28" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="K88" s="20"/>
       <c r="L88" s="30"/>
-      <c r="M88" s="115"/>
+      <c r="M88" s="122"/>
     </row>
     <row r="89" spans="1:13" s="73" customFormat="1">
       <c r="A89" s="20"/>
       <c r="B89" s="76" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D89" s="20"/>
       <c r="E89" s="75" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F89" s="76" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="G89" s="22"/>
       <c r="H89" s="20"/>
       <c r="I89" s="29" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="J89" s="28" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="K89" s="20"/>
       <c r="L89" s="30"/>
-      <c r="M89" s="115"/>
+      <c r="M89" s="124" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="90" spans="1:13" s="73" customFormat="1">
       <c r="A90" s="20"/>
       <c r="B90" s="76" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C90" s="20" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D90" s="20"/>
       <c r="E90" s="75" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F90" s="76" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="G90" s="22"/>
       <c r="H90" s="20"/>
       <c r="I90" s="29" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="J90" s="28" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="K90" s="20"/>
       <c r="L90" s="30"/>
-      <c r="M90" s="115"/>
+      <c r="M90" s="124" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="91" spans="1:13" s="73" customFormat="1">
       <c r="A91" s="20"/>
       <c r="B91" s="76" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C91" s="20" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D91" s="20"/>
       <c r="E91" s="75" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F91" s="76" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="G91" s="22"/>
       <c r="H91" s="20"/>
       <c r="I91" s="29" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="J91" s="28" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="K91" s="20"/>
       <c r="L91" s="30"/>
-      <c r="M91" s="115"/>
+      <c r="M91" s="124" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="92" spans="1:13" s="73" customFormat="1">
       <c r="A92" s="9"/>
       <c r="B92" s="12"/>
       <c r="C92" s="9" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D92" s="9"/>
       <c r="E92" s="74" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="G92" s="11"/>
       <c r="H92" s="9"/>
@@ -4931,127 +5115,131 @@
         <v>2</v>
       </c>
       <c r="J92" s="32" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="K92" s="9"/>
       <c r="L92" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="M92" s="115"/>
+        <v>212</v>
+      </c>
+      <c r="M92" s="114"/>
     </row>
     <row r="93" spans="1:13" s="83" customFormat="1">
       <c r="A93" s="77"/>
       <c r="B93" s="106"/>
       <c r="C93" s="78" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D93" s="78"/>
       <c r="E93" s="79" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F93" s="80"/>
       <c r="G93" s="81"/>
       <c r="H93" s="78"/>
       <c r="I93" s="79" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="J93" s="80" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="K93" s="78"/>
       <c r="L93" s="82"/>
-      <c r="M93" s="116"/>
+      <c r="M93" s="115"/>
     </row>
     <row r="94" spans="1:13" s="83" customFormat="1">
       <c r="A94" s="84"/>
       <c r="B94" s="85" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="C94" s="84" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D94" s="84"/>
       <c r="E94" s="75" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F94" s="85" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="G94" s="86"/>
       <c r="H94" s="84"/>
       <c r="I94" s="75" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="J94" s="85" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="K94" s="84"/>
       <c r="L94" s="87"/>
-      <c r="M94" s="116"/>
+      <c r="M94" s="115"/>
     </row>
     <row r="95" spans="1:13" s="83" customFormat="1">
       <c r="A95" s="20"/>
       <c r="B95" s="85" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C95" s="84" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D95" s="20"/>
       <c r="E95" s="75" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F95" s="76" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="G95" s="22"/>
       <c r="H95" s="20"/>
       <c r="I95" s="29" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="J95" s="28" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="K95" s="20"/>
       <c r="L95" s="30"/>
-      <c r="M95" s="116"/>
+      <c r="M95" s="125" t="s">
+        <v>441</v>
+      </c>
     </row>
     <row r="96" spans="1:13" s="83" customFormat="1">
       <c r="A96" s="20"/>
       <c r="B96" s="85" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C96" s="84" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D96" s="20"/>
       <c r="E96" s="75" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F96" s="76" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="G96" s="22"/>
       <c r="H96" s="20"/>
       <c r="I96" s="29" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="J96" s="28" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="K96" s="20"/>
       <c r="L96" s="30"/>
-      <c r="M96" s="116"/>
+      <c r="M96" s="125" t="s">
+        <v>441</v>
+      </c>
     </row>
     <row r="97" spans="1:13">
       <c r="A97" s="44"/>
       <c r="B97" s="103"/>
       <c r="C97" s="44" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D97" s="44"/>
       <c r="E97" s="71" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="F97" s="45"/>
       <c r="G97" s="46"/>
@@ -5064,17 +5252,17 @@
     <row r="98" spans="1:13">
       <c r="A98" s="20"/>
       <c r="B98" s="76" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C98" s="20" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D98" s="20"/>
       <c r="E98" s="88" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="F98" s="88" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G98" s="22" t="s">
         <v>32</v>
@@ -5088,26 +5276,27 @@
       </c>
       <c r="K98" s="20"/>
       <c r="L98" s="23" t="s">
-        <v>276</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="M98" s="122"/>
     </row>
     <row r="99" spans="1:13" ht="28.5">
       <c r="A99" s="4"/>
       <c r="B99" s="6" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C99" s="20" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D99" s="20"/>
       <c r="E99" s="88" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="F99" s="88" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G99" s="22" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H99" s="20"/>
       <c r="I99" s="29" t="s">
@@ -5122,20 +5311,20 @@
     <row r="100" spans="1:13">
       <c r="A100" s="4"/>
       <c r="B100" s="6" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="C100" s="20" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="D100" s="20"/>
       <c r="E100" s="88" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="F100" s="88" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="G100" s="22" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H100" s="20"/>
       <c r="I100" s="29" t="s">
@@ -5146,23 +5335,23 @@
       </c>
       <c r="K100" s="20"/>
       <c r="L100" s="23" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="101" spans="1:13">
       <c r="A101" s="4"/>
       <c r="B101" s="6" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="C101" s="20" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D101" s="20"/>
       <c r="E101" s="89" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F101" s="88" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G101" s="22" t="s">
         <v>33</v>
@@ -5176,18 +5365,18 @@
       </c>
       <c r="K101" s="20"/>
       <c r="L101" s="23" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="102" spans="1:13">
       <c r="A102" s="44"/>
       <c r="B102" s="103"/>
       <c r="C102" s="44" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D102" s="44"/>
       <c r="E102" s="71" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="F102" s="45"/>
       <c r="G102" s="46"/>
@@ -5200,20 +5389,20 @@
     <row r="103" spans="1:13" s="73" customFormat="1">
       <c r="A103" s="20"/>
       <c r="B103" s="76" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C103" s="20" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D103" s="20"/>
       <c r="E103" s="90" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="F103" s="91" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G103" s="92" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H103" s="20"/>
       <c r="I103" s="29" t="s">
@@ -5224,19 +5413,21 @@
       </c>
       <c r="K103" s="20"/>
       <c r="L103" s="23" t="s">
-        <v>289</v>
-      </c>
-      <c r="M103" s="115"/>
+        <v>282</v>
+      </c>
+      <c r="M103" s="124" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="104" spans="1:13" s="73" customFormat="1">
       <c r="A104" s="48"/>
       <c r="B104" s="104"/>
       <c r="C104" s="48" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D104" s="48"/>
       <c r="E104" s="93" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F104" s="94"/>
       <c r="G104" s="95"/>
@@ -5245,25 +5436,25 @@
       <c r="J104" s="52"/>
       <c r="K104" s="48"/>
       <c r="L104" s="53"/>
-      <c r="M104" s="115"/>
+      <c r="M104" s="114"/>
     </row>
     <row r="105" spans="1:13" ht="28.5">
       <c r="A105" s="4"/>
       <c r="B105" s="6" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="C105" s="20" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D105" s="20"/>
       <c r="E105" s="90" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="F105" s="91" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G105" s="22" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H105" s="20"/>
       <c r="I105" s="29" t="s">
@@ -5274,26 +5465,26 @@
       </c>
       <c r="K105" s="20"/>
       <c r="L105" s="23" t="s">
-        <v>290</v>
-      </c>
-      <c r="M105" s="107" t="s">
-        <v>403</v>
+        <v>283</v>
+      </c>
+      <c r="M105" s="122" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="106" spans="1:13">
       <c r="A106" s="4"/>
       <c r="B106" s="6" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="C106" s="20" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D106" s="20"/>
       <c r="E106" s="90" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="F106" s="91" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G106" s="22" t="s">
         <v>32</v>
@@ -5307,23 +5498,23 @@
       </c>
       <c r="K106" s="20"/>
       <c r="L106" s="23" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="107" spans="1:13">
       <c r="A107" s="4"/>
       <c r="B107" s="6" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C107" s="20" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D107" s="20"/>
       <c r="E107" s="90" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="F107" s="91" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G107" s="22" t="s">
         <v>33</v>
@@ -5337,26 +5528,27 @@
       </c>
       <c r="K107" s="20"/>
       <c r="L107" s="23" t="s">
-        <v>278</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="M107" s="122"/>
     </row>
     <row r="108" spans="1:13">
       <c r="A108" s="4"/>
       <c r="B108" s="6" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C108" s="20" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D108" s="20"/>
       <c r="E108" s="90" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="F108" s="91" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="G108" s="22" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H108" s="20"/>
       <c r="I108" s="29" t="s">
@@ -5371,20 +5563,20 @@
     <row r="109" spans="1:13" ht="28.5">
       <c r="A109" s="4"/>
       <c r="B109" s="6" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C109" s="20" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D109" s="20"/>
       <c r="E109" s="90" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="F109" s="91" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G109" s="22" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H109" s="20"/>
       <c r="I109" s="29" t="s">
@@ -5395,24 +5587,27 @@
       </c>
       <c r="K109" s="20"/>
       <c r="L109" s="23"/>
+      <c r="M109" s="122" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="110" spans="1:13" ht="28.5">
       <c r="A110" s="4"/>
       <c r="B110" s="6" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="C110" s="20" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D110" s="20"/>
       <c r="E110" s="90" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="F110" s="91" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G110" s="22" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H110" s="20"/>
       <c r="I110" s="29" t="s">
@@ -5427,20 +5622,20 @@
     <row r="111" spans="1:13">
       <c r="A111" s="4"/>
       <c r="B111" s="6" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="C111" s="20" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D111" s="20"/>
       <c r="E111" s="90" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="F111" s="91" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G111" s="22" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H111" s="20"/>
       <c r="I111" s="29" t="s">
@@ -5455,17 +5650,17 @@
     <row r="112" spans="1:13">
       <c r="A112" s="4"/>
       <c r="B112" s="6" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="C112" s="20" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D112" s="20"/>
       <c r="E112" s="90" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="F112" s="91" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G112" s="92" t="s">
         <v>64</v>
@@ -5483,20 +5678,20 @@
     <row r="113" spans="1:14">
       <c r="A113" s="4"/>
       <c r="B113" s="6" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C113" s="20" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D113" s="20"/>
       <c r="E113" s="90" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="F113" s="91" t="s">
-        <v>99</v>
+        <v>437</v>
       </c>
       <c r="G113" s="92" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H113" s="20"/>
       <c r="I113" s="29" t="s">
@@ -5507,6 +5702,7 @@
       </c>
       <c r="K113" s="20"/>
       <c r="L113" s="23"/>
+      <c r="M113" s="122"/>
     </row>
     <row r="116" spans="1:14">
       <c r="C116" s="14"/>
@@ -5519,7 +5715,7 @@
       <c r="J116" s="14"/>
       <c r="K116" s="14"/>
       <c r="L116" s="14"/>
-      <c r="M116" s="117"/>
+      <c r="M116" s="116"/>
       <c r="N116" s="14"/>
     </row>
     <row r="117" spans="1:14">
@@ -5533,7 +5729,7 @@
       <c r="J117" s="14"/>
       <c r="K117" s="14"/>
       <c r="L117" s="14"/>
-      <c r="M117" s="117"/>
+      <c r="M117" s="116"/>
       <c r="N117" s="14"/>
     </row>
     <row r="118" spans="1:14">
@@ -5547,7 +5743,7 @@
       <c r="J118" s="65"/>
       <c r="K118" s="69"/>
       <c r="L118" s="100"/>
-      <c r="M118" s="114"/>
+      <c r="M118" s="113"/>
       <c r="N118" s="101"/>
     </row>
     <row r="119" spans="1:14">
@@ -5561,7 +5757,7 @@
       <c r="J119" s="14"/>
       <c r="K119" s="14"/>
       <c r="L119" s="14"/>
-      <c r="M119" s="117"/>
+      <c r="M119" s="116"/>
       <c r="N119" s="14"/>
     </row>
     <row r="120" spans="1:14">
@@ -5575,7 +5771,7 @@
       <c r="J120" s="14"/>
       <c r="K120" s="14"/>
       <c r="L120" s="14"/>
-      <c r="M120" s="117"/>
+      <c r="M120" s="116"/>
       <c r="N120" s="14"/>
     </row>
     <row r="121" spans="1:14">
@@ -5589,7 +5785,7 @@
       <c r="J121" s="14"/>
       <c r="K121" s="14"/>
       <c r="L121" s="14"/>
-      <c r="M121" s="117"/>
+      <c r="M121" s="116"/>
       <c r="N121" s="14"/>
     </row>
     <row r="122" spans="1:14">
@@ -5603,7 +5799,7 @@
       <c r="J122" s="14"/>
       <c r="K122" s="14"/>
       <c r="L122" s="14"/>
-      <c r="M122" s="117"/>
+      <c r="M122" s="116"/>
       <c r="N122" s="14"/>
     </row>
     <row r="123" spans="1:14" ht="17.25">
@@ -5617,7 +5813,7 @@
       <c r="J123" s="14"/>
       <c r="K123" s="14"/>
       <c r="L123" s="14"/>
-      <c r="M123" s="117"/>
+      <c r="M123" s="116"/>
       <c r="N123" s="14"/>
     </row>
     <row r="124" spans="1:14" ht="17.25">
@@ -5631,7 +5827,7 @@
       <c r="J124" s="14"/>
       <c r="K124" s="14"/>
       <c r="L124" s="14"/>
-      <c r="M124" s="117"/>
+      <c r="M124" s="116"/>
       <c r="N124" s="14"/>
     </row>
     <row r="125" spans="1:14" ht="17.25">
@@ -5645,7 +5841,7 @@
       <c r="J125" s="14"/>
       <c r="K125" s="14"/>
       <c r="L125" s="14"/>
-      <c r="M125" s="117"/>
+      <c r="M125" s="116"/>
       <c r="N125" s="14"/>
     </row>
     <row r="126" spans="1:14" ht="17.25">
@@ -5659,7 +5855,7 @@
       <c r="J126" s="14"/>
       <c r="K126" s="14"/>
       <c r="L126" s="14"/>
-      <c r="M126" s="117"/>
+      <c r="M126" s="116"/>
       <c r="N126" s="14"/>
     </row>
     <row r="127" spans="1:14" ht="17.25">
@@ -5673,7 +5869,7 @@
       <c r="J127" s="14"/>
       <c r="K127" s="14"/>
       <c r="L127" s="14"/>
-      <c r="M127" s="117"/>
+      <c r="M127" s="116"/>
       <c r="N127" s="14"/>
     </row>
     <row r="128" spans="1:14" ht="17.25">
@@ -5687,7 +5883,7 @@
       <c r="J128" s="14"/>
       <c r="K128" s="14"/>
       <c r="L128" s="14"/>
-      <c r="M128" s="117"/>
+      <c r="M128" s="116"/>
       <c r="N128" s="14"/>
     </row>
     <row r="129" spans="3:14" ht="17.25">
@@ -5701,7 +5897,7 @@
       <c r="J129" s="14"/>
       <c r="K129" s="14"/>
       <c r="L129" s="14"/>
-      <c r="M129" s="117"/>
+      <c r="M129" s="116"/>
       <c r="N129" s="14"/>
     </row>
     <row r="130" spans="3:14" ht="17.25">
@@ -5715,7 +5911,7 @@
       <c r="J130" s="14"/>
       <c r="K130" s="14"/>
       <c r="L130" s="14"/>
-      <c r="M130" s="117"/>
+      <c r="M130" s="116"/>
       <c r="N130" s="14"/>
     </row>
     <row r="131" spans="3:14" ht="17.25">
@@ -5729,7 +5925,7 @@
       <c r="J131" s="14"/>
       <c r="K131" s="14"/>
       <c r="L131" s="14"/>
-      <c r="M131" s="117"/>
+      <c r="M131" s="116"/>
       <c r="N131" s="14"/>
     </row>
     <row r="132" spans="3:14" ht="17.25">
@@ -5743,7 +5939,7 @@
       <c r="J132" s="14"/>
       <c r="K132" s="14"/>
       <c r="L132" s="14"/>
-      <c r="M132" s="117"/>
+      <c r="M132" s="116"/>
       <c r="N132" s="14"/>
     </row>
     <row r="133" spans="3:14">
@@ -5757,7 +5953,7 @@
       <c r="J133" s="14"/>
       <c r="K133" s="14"/>
       <c r="L133" s="14"/>
-      <c r="M133" s="117"/>
+      <c r="M133" s="116"/>
       <c r="N133" s="14"/>
     </row>
   </sheetData>

--- a/10.8/新BOM分阶  带物料号.xlsx
+++ b/10.8/新BOM分阶  带物料号.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="459">
   <si>
     <t>无线测温系统</t>
   </si>
@@ -1529,6 +1529,49 @@
   </si>
   <si>
     <t>440100400050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>411510500010</t>
+  </si>
+  <si>
+    <t>411510500010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>411510500020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>440300500020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>440300500030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>440300500040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>450400100010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>410610600010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>430300400010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>411010800010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>411690100010</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1639,7 +1682,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1711,6 +1754,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1766,7 +1815,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2136,13 +2185,16 @@
     <xf numFmtId="49" fontId="10" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2453,8 +2505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:XFD33"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16:P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2840,7 +2892,9 @@
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="23"/>
-      <c r="M13" s="122"/>
+      <c r="M13" s="122" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="20"/>
@@ -2869,7 +2923,9 @@
       <c r="L14" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="M14" s="122"/>
+      <c r="M14" s="122" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="20"/>
@@ -2896,7 +2952,9 @@
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="122"/>
+      <c r="M15" s="122" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="20"/>
@@ -3006,7 +3064,7 @@
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="23"/>
-      <c r="M19" s="124" t="s">
+      <c r="M19" s="123" t="s">
         <v>447</v>
       </c>
     </row>
@@ -3035,7 +3093,9 @@
       </c>
       <c r="K20" s="20"/>
       <c r="L20" s="30"/>
-      <c r="M20" s="122"/>
+      <c r="M20" s="122" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="9"/>
@@ -3235,8 +3295,8 @@
       </c>
       <c r="K27" s="20"/>
       <c r="L27" s="30"/>
-      <c r="M27" s="124" t="s">
-        <v>443</v>
+      <c r="M27" s="122" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -3264,8 +3324,8 @@
       </c>
       <c r="K28" s="20"/>
       <c r="L28" s="30"/>
-      <c r="M28" s="124" t="s">
-        <v>444</v>
+      <c r="M28" s="123" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -3293,7 +3353,9 @@
       </c>
       <c r="K29" s="20"/>
       <c r="L29" s="30"/>
-      <c r="M29" s="122"/>
+      <c r="M29" s="123" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="20"/>
@@ -3318,7 +3380,7 @@
       </c>
       <c r="K30" s="20"/>
       <c r="L30" s="30"/>
-      <c r="M30" s="124" t="s">
+      <c r="M30" s="123" t="s">
         <v>439</v>
       </c>
     </row>
@@ -3388,7 +3450,9 @@
       </c>
       <c r="K33" s="20"/>
       <c r="L33" s="30"/>
-      <c r="M33" s="122"/>
+      <c r="M33" s="122" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="34" spans="1:13" s="43" customFormat="1">
       <c r="A34" s="37"/>
@@ -3432,7 +3496,7 @@
       <c r="J35" s="45"/>
       <c r="K35" s="44"/>
       <c r="L35" s="47"/>
-      <c r="M35" s="122"/>
+      <c r="M35" s="126"/>
     </row>
     <row r="36" spans="1:13" s="43" customFormat="1">
       <c r="A36" s="37"/>
@@ -3459,7 +3523,7 @@
       </c>
       <c r="K36" s="37"/>
       <c r="L36" s="42"/>
-      <c r="M36" s="124" t="s">
+      <c r="M36" s="123" t="s">
         <v>440</v>
       </c>
     </row>
@@ -3782,7 +3846,9 @@
       <c r="L47" s="60" t="s">
         <v>242</v>
       </c>
-      <c r="M47" s="122"/>
+      <c r="M47" s="122" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="20"/>
@@ -3809,7 +3875,9 @@
       <c r="L48" s="63" t="s">
         <v>245</v>
       </c>
-      <c r="M48" s="122"/>
+      <c r="M48" s="122" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="49" spans="1:23">
       <c r="A49" s="20"/>
@@ -3873,7 +3941,9 @@
       <c r="L50" s="64" t="s">
         <v>242</v>
       </c>
-      <c r="M50" s="123"/>
+      <c r="M50" s="125" t="s">
+        <v>448</v>
+      </c>
       <c r="N50" s="65"/>
       <c r="O50" s="65"/>
       <c r="P50" s="66"/>
@@ -3914,7 +3984,9 @@
       <c r="L51" s="64" t="s">
         <v>242</v>
       </c>
-      <c r="M51" s="123"/>
+      <c r="M51" s="125" t="s">
+        <v>448</v>
+      </c>
       <c r="N51" s="65"/>
       <c r="O51" s="65"/>
       <c r="P51" s="66"/>
@@ -3955,7 +4027,9 @@
       <c r="L52" s="60" t="s">
         <v>251</v>
       </c>
-      <c r="M52" s="122"/>
+      <c r="M52" s="122" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="53" spans="1:23">
       <c r="A53" s="20"/>
@@ -4046,7 +4120,7 @@
       </c>
       <c r="K55" s="20"/>
       <c r="L55" s="60"/>
-      <c r="M55" s="124" t="s">
+      <c r="M55" s="123" t="s">
         <v>441</v>
       </c>
     </row>
@@ -4759,7 +4833,9 @@
       <c r="L79" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="M79" s="122"/>
+      <c r="M79" s="122" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="80" spans="1:13" ht="28.5">
       <c r="A80" s="4"/>
@@ -5007,7 +5083,9 @@
       </c>
       <c r="K88" s="20"/>
       <c r="L88" s="30"/>
-      <c r="M88" s="122"/>
+      <c r="M88" s="122" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="89" spans="1:13" s="73" customFormat="1">
       <c r="A89" s="20"/>
@@ -5034,7 +5112,7 @@
       </c>
       <c r="K89" s="20"/>
       <c r="L89" s="30"/>
-      <c r="M89" s="124" t="s">
+      <c r="M89" s="123" t="s">
         <v>438</v>
       </c>
     </row>
@@ -5063,7 +5141,7 @@
       </c>
       <c r="K90" s="20"/>
       <c r="L90" s="30"/>
-      <c r="M90" s="124" t="s">
+      <c r="M90" s="123" t="s">
         <v>445</v>
       </c>
     </row>
@@ -5092,7 +5170,7 @@
       </c>
       <c r="K91" s="20"/>
       <c r="L91" s="30"/>
-      <c r="M91" s="124" t="s">
+      <c r="M91" s="123" t="s">
         <v>446</v>
       </c>
     </row>
@@ -5198,7 +5276,7 @@
       </c>
       <c r="K95" s="20"/>
       <c r="L95" s="30"/>
-      <c r="M95" s="125" t="s">
+      <c r="M95" s="124" t="s">
         <v>441</v>
       </c>
     </row>
@@ -5227,7 +5305,7 @@
       </c>
       <c r="K96" s="20"/>
       <c r="L96" s="30"/>
-      <c r="M96" s="125" t="s">
+      <c r="M96" s="124" t="s">
         <v>441</v>
       </c>
     </row>
@@ -5278,7 +5356,9 @@
       <c r="L98" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="M98" s="122"/>
+      <c r="M98" s="122" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="99" spans="1:13" ht="28.5">
       <c r="A99" s="4"/>
@@ -5415,7 +5495,7 @@
       <c r="L103" s="23" t="s">
         <v>282</v>
       </c>
-      <c r="M103" s="124" t="s">
+      <c r="M103" s="123" t="s">
         <v>436</v>
       </c>
     </row>
@@ -5530,7 +5610,9 @@
       <c r="L107" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="M107" s="122"/>
+      <c r="M107" s="122" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="108" spans="1:13">
       <c r="A108" s="4"/>
@@ -5678,7 +5760,7 @@
     <row r="113" spans="1:14">
       <c r="A113" s="4"/>
       <c r="B113" s="6" t="s">
-        <v>344</v>
+        <v>455</v>
       </c>
       <c r="C113" s="20" t="s">
         <v>175</v>
@@ -5702,7 +5784,7 @@
       </c>
       <c r="K113" s="20"/>
       <c r="L113" s="23"/>
-      <c r="M113" s="122"/>
+      <c r="M113" s="114"/>
     </row>
     <row r="116" spans="1:14">
       <c r="C116" s="14"/>
